--- a/uitest/calc/電卓DLL.xlsx
+++ b/uitest/calc/電卓DLL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\2020\kyokuto\samples\uitest\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F620767B-9ED5-4171-9736-B3EC36C63827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B08C355E-F9B4-4690-8B68-7F27801C32FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="195" windowWidth="18375" windowHeight="14580" activeTab="1" xr2:uid="{86D2ECFD-6698-409A-819A-B032CB46842E}"/>
+    <workbookView xWindow="465" yWindow="195" windowWidth="18375" windowHeight="14580" xr2:uid="{86D2ECFD-6698-409A-819A-B032CB46842E}"/>
   </bookViews>
   <sheets>
     <sheet name="概要と使い方" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="154">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -313,17 +313,6 @@
     <t>名称は「CalcCallBt」とします</t>
     <rPh sb="0" eb="2">
       <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ⅳ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ViewModelからの使用</t>
-    <rPh sb="12" eb="14">
-      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1435,22 +1424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>計算結果の誤差を最小化します</t>
-    <rPh sb="0" eb="2">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゴサ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>サイショウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その誤差を含んだ結果に次の入力で演算を繰り返すと</t>
     <rPh sb="2" eb="4">
       <t>ゴサ</t>
@@ -1488,6 +1461,236 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ゾウダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C(Delete)の処理では誤差発生後の結果から逆算するのではなく</t>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ギャクサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤差発生前までの再計算を行う事で、齟齬を軽減します</t>
+    <rPh sb="0" eb="2">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サイケイサン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤「計算結果を戻すフィールド」で数値に続いて四則演算子を入力すると</t>
+    <rPh sb="16" eb="18">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シソク</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値は確定値、演算子は次に入力する数値の演算子として電卓ダイアログを表示します</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カクテイチ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>デンタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（キーボードからマウスへの持ち替えの煩わしさを削減する工夫です）</t>
+    <rPh sb="18" eb="19">
+      <t>ワズラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>クフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的な仕様は市販されている電卓（実機）やWindowsに付属する電卓アプリに合わせますが</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シハン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>デンタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>デンタク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば演算子と数値を入力して＝（Enter）キーの押下を繰り返すと</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＝（Enter）キーの2回目の押下でDllを割り付けたフィールドに値を戻す　</t>
+    <rPh sb="22" eb="23">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返し演算になりますが、電卓Dllはマウスとキーボードの持ち替えの煩雑さを減らす観点から</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デンタク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハンザツ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>など入力補助機構としての使いやすさを優先する仕様にしています</t>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑬ダイヤログのクローズボタンクリックも同様です</t>
+    <rPh sb="19" eb="21">
+      <t>ドウヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1496,7 +1699,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1512,13 +1715,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -1527,6 +1723,19 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1554,14 +1763,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1590,13 +1811,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>17739</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1634,13 +1855,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>133709</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>124135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1677,15 +1898,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85397</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>19482</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>48057</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1708,7 +1929,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3581400" y="694997"/>
+          <a:off x="3609975" y="1990397"/>
           <a:ext cx="3096057" cy="2353003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1722,13 +1943,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>88405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1771,13 +1992,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>123973</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>47781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3465,208 +3686,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="262800" cy="264184"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="楕円 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E371E22A-5798-435B-9B16-274BDCF2B04F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4600575" y="7743825"/>
-          <a:ext cx="262800" cy="264184"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>69450</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>55396</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>105450</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>91396</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="楕円 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B56C24-C95D-4D21-8AA6-96CEBCEF21BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4470000" y="6608596"/>
-          <a:ext cx="36000" cy="36000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>69450</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>73396</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>62775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>103517</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="コネクタ: カギ線 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65ACB3D4-B673-42E0-B945-D63BA38A3261}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="69" idx="6"/>
-          <a:endCxn id="70" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4470000" y="6626596"/>
-          <a:ext cx="393375" cy="1249321"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -58112"/>
-            <a:gd name="adj2" fmla="val 54566"/>
-            <a:gd name="adj3" fmla="val 158112"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>117007</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="262800" cy="264184"/>
@@ -3745,13 +3767,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>31350</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>36346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>67350</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>72346</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3805,13 +3827,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>113107</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>46367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>31350</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>54346</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3942,13 +3964,13 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>12300</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>141121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>48300</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>24721</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4008,7 +4030,7 @@
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>29333</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>146392</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4060,7 +4082,7 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>107482</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="262800" cy="264184"/>
@@ -4139,13 +4161,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>40875</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>74446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>76875</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>110446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4199,13 +4221,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>103582</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>92446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>40875</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>93992</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4454,13 +4476,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>104901</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>47738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4498,13 +4520,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>130</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>38190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4542,13 +4564,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>95412</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>38190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4586,13 +4608,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>123991</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>47717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4630,13 +4652,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>113981</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>104853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4674,13 +4696,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>169</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>142999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4718,13 +4740,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>57344</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>123949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4762,14 +4784,14 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>9907</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>76360</xdr:rowOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>47785</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4792,7 +4814,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4476750" y="14325600"/>
+          <a:off x="4476750" y="14754225"/>
           <a:ext cx="2734057" cy="1143160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4806,13 +4828,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>86128</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>123885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4849,9 +4871,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>78907</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>81614</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="262800" cy="264184"/>
     <xdr:sp macro="" textlink="">
@@ -4869,7 +4891,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7013107" y="13811250"/>
+          <a:off x="7015814" y="14258925"/>
           <a:ext cx="262800" cy="264184"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4913,7 +4935,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>12</a:t>
+            <a:t>13</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
             <a:solidFill>
@@ -4929,13 +4951,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>76268</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>55396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>112268</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>91396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4988,15 +5010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>76956</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>54634</xdr:rowOff>
+      <xdr:colOff>79665</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>45108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>81539</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>60668</xdr:rowOff>
+      <xdr:colOff>81541</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>60667</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5014,8 +5036,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6991381" y="14228559"/>
-          <a:ext cx="310834" cy="4583"/>
+          <a:off x="6987973" y="14682350"/>
+          <a:ext cx="320359" cy="1876"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5047,13 +5069,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>86109</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>57243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5091,13 +5113,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>86109</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>170</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5135,13 +5157,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>105162</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>76360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5475,18 +5497,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0381B76-B3FF-4D6F-83E0-648268F80697}">
-  <dimension ref="A2:H113"/>
+  <dimension ref="A2:H117"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -5494,282 +5516,294 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
+    <row r="19" spans="2:3">
+      <c r="C19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+    <row r="30" spans="2:3">
+      <c r="C30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
         <v>16</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
+    <row r="49" spans="2:3">
+      <c r="C49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
+    <row r="50" spans="2:3">
+      <c r="C50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
         <v>17</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C62" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
+    <row r="63" spans="2:3">
+      <c r="C63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C55" t="s">
+    <row r="64" spans="2:3">
+      <c r="C64" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
+    <row r="66" spans="1:3">
+      <c r="C66" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C58" t="s">
+    <row r="67" spans="1:3">
+      <c r="C67" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C60" t="s">
+    <row r="69" spans="1:3">
+      <c r="C69" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C61" t="s">
+    <row r="70" spans="1:3">
+      <c r="C70" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C62" t="s">
+    <row r="71" spans="1:3">
+      <c r="C71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C63" t="s">
+    <row r="72" spans="1:3">
+      <c r="C72" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
         <v>29</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
+    <row r="81" spans="2:8">
+      <c r="B81" t="s">
         <v>3</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C81" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C74" t="s">
+    <row r="83" spans="2:8">
+      <c r="C83" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C76" t="s">
+    <row r="85" spans="2:8">
+      <c r="C85" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C78" t="s">
+    <row r="87" spans="2:8">
+      <c r="C87" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
+    <row r="90" spans="2:8">
+      <c r="B90" t="s">
         <v>5</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C90" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C83" s="1" t="s">
+    <row r="92" spans="2:8">
+      <c r="C92" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="C93" s="1"/>
+      <c r="D93" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="C94" s="1"/>
+      <c r="H94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="C95" s="1"/>
+      <c r="H95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="C96" s="1"/>
+      <c r="H96" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7">
+      <c r="C97" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D97" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C84" s="1"/>
-      <c r="D84" t="s">
+    <row r="98" spans="3:7">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7">
+      <c r="D99" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E99" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7">
+      <c r="D100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7">
+      <c r="G101" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C85" s="1"/>
-      <c r="H85" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C86" s="1"/>
-      <c r="H86" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C87" s="1"/>
-      <c r="H87" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C88" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C89" s="1"/>
-      <c r="D89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D90" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E90" t="s">
+    <row r="102" spans="3:7">
+      <c r="G102" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G93" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C99" t="s">
+    <row r="108" spans="3:7">
+      <c r="C108" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C100" t="s">
+    <row r="109" spans="3:7">
+      <c r="C109" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>38</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B114" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
+    <row r="115" spans="1:2">
+      <c r="B115" t="s">
         <v>40</v>
       </c>
-      <c r="B110" t="s">
+    </row>
+    <row r="116" spans="1:2">
+      <c r="B116" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B111" t="s">
+    <row r="117" spans="1:2">
+      <c r="B117" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B112" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B113" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5781,461 +5815,497 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8477B1B2-47EA-4FA2-AE13-87103A894485}">
-  <dimension ref="B2:AL118"/>
+  <dimension ref="B2:AL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A91" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W122" sqref="W122"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A79" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="12"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="C5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
+    <row r="6" spans="2:6">
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6">
       <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6">
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6">
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
       <c r="F17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="F21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F20" t="s">
+    <row r="23" spans="5:7">
+      <c r="E23" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="G25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E23" s="1" t="s">
+    <row r="26" spans="5:7">
+      <c r="G26" t="s">
         <v>79</v>
       </c>
-      <c r="F23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G25" t="s">
+    </row>
+    <row r="27" spans="5:7">
+      <c r="G27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G26" t="s">
+    <row r="29" spans="5:7">
+      <c r="E29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G27" t="s">
+    <row r="30" spans="5:7">
+      <c r="G30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E29" s="1" t="s">
+    <row r="31" spans="5:7">
+      <c r="G31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s">
         <v>86</v>
       </c>
-      <c r="F29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E33" s="1" t="s">
+    </row>
+    <row r="34" spans="5:7">
+      <c r="G34" t="s">
         <v>87</v>
       </c>
-      <c r="F33" t="s">
+    </row>
+    <row r="35" spans="5:7">
+      <c r="G35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G34" t="s">
+    <row r="36" spans="5:7">
+      <c r="G36" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G35" t="s">
+    <row r="38" spans="5:7">
+      <c r="G38" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G36" t="s">
+    <row r="39" spans="5:7">
+      <c r="G39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G38" t="s">
+    <row r="40" spans="5:7">
+      <c r="G40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G39" t="s">
+    <row r="42" spans="5:7">
+      <c r="F42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G40" t="s">
+    <row r="43" spans="5:7">
+      <c r="G43" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" t="s">
+    <row r="44" spans="5:7">
+      <c r="G44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G43" t="s">
+    <row r="45" spans="5:7">
+      <c r="G45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G44" t="s">
+    <row r="47" spans="5:7">
+      <c r="E47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G45" t="s">
+    <row r="48" spans="5:7">
+      <c r="E48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="C50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E47" t="s">
+    <row r="51" spans="3:7">
+      <c r="D51" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
+    <row r="53" spans="3:7">
+      <c r="D53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="D55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="D56" s="1"/>
+      <c r="E56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="D57" s="1"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="F58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="D60" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D51" t="s">
+      <c r="E60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7">
+      <c r="D61" s="1"/>
+      <c r="E61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="E62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7">
+      <c r="D64" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D55" s="1" t="s">
+      <c r="E64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="4:38">
+      <c r="D66" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D56" s="1"/>
-      <c r="E56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E57" t="s">
+      <c r="E66" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D59" s="1" t="s">
+    <row r="67" spans="4:38">
+      <c r="E67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="4:38">
+      <c r="E68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="4:38">
+      <c r="D73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="4:38">
+      <c r="D74" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D64" s="1" t="s">
+      <c r="E74" t="s">
+        <v>120</v>
+      </c>
+      <c r="T74" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E64" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="E65" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="E66" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D70" t="s">
+      <c r="U74" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="71" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D71" s="1" t="s">
+      <c r="AK74" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E71" t="s">
+      <c r="AL74" t="s">
         <v>122</v>
       </c>
-      <c r="T71" s="1" t="s">
+    </row>
+    <row r="79" spans="4:38">
+      <c r="D79" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U71" t="s">
+      <c r="E79" t="s">
         <v>123</v>
       </c>
-      <c r="AK71" s="1" t="s">
+    </row>
+    <row r="84" spans="4:6">
+      <c r="D84" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AL71" t="s">
+      <c r="E84" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D76" s="1" t="s">
+    <row r="85" spans="4:6">
+      <c r="E85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6">
+      <c r="E86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6">
+      <c r="D90" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E90" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D81" s="1" t="s">
+    <row r="91" spans="4:6">
+      <c r="F91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6">
+      <c r="D97" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E82" t="s">
+      <c r="E97" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E83" t="s">
+    <row r="98" spans="3:6">
+      <c r="E98" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D87" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E87" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F88" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D94" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E94" t="s">
+    <row r="99" spans="3:6">
+      <c r="E99" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E95" t="s">
+    <row r="101" spans="3:6">
+      <c r="D101" s="1"/>
+      <c r="E101" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E96" t="s">
+    <row r="102" spans="3:6">
+      <c r="D102" s="1"/>
+      <c r="E102" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D98" s="1"/>
-      <c r="E98" t="s">
+    <row r="104" spans="3:6">
+      <c r="E104" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6">
+      <c r="C111" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D99" s="1"/>
-      <c r="E99" t="s">
+    <row r="112" spans="3:6">
+      <c r="D112" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C106" t="s">
+    <row r="113" spans="4:7">
+      <c r="D113" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D107" t="s">
+    <row r="114" spans="4:7">
+      <c r="D114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="4:7">
+      <c r="D115" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D108" t="s">
+    <row r="117" spans="4:7">
+      <c r="D117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="4:7">
+      <c r="D118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="4:7">
+      <c r="D121" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D109" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D110" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D112" t="s">
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="4:7">
+      <c r="D122" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="4:7">
+      <c r="D123" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="4:7">
+      <c r="D124" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D113" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D116" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D117" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-    </row>
-    <row r="118" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D118" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="3.937007874015748E-2" top="0.15748031496062992" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="68" max="16383" man="1"/>
+    <brk id="71" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="57" max="1048575" man="1"/>

--- a/uitest/calc/電卓DLL.xlsx
+++ b/uitest/calc/電卓DLL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\2020\kyokuto\samples\uitest\calc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\2020\kyokuto\Smple\uitest\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0827B9D7-5535-4BB2-A0EB-D7FCED137069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30F8634-433B-4A18-A25C-C1C2E9179FAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="705" windowWidth="22665" windowHeight="13410" xr2:uid="{86D2ECFD-6698-409A-819A-B032CB46842E}"/>
+    <workbookView xWindow="33435" yWindow="270" windowWidth="17025" windowHeight="13620" xr2:uid="{86D2ECFD-6698-409A-819A-B032CB46842E}"/>
   </bookViews>
   <sheets>
     <sheet name="概要と使い方" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="159">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;CS_Calculator:CalculatorButton   x:Name="CalcCallBt" </t>
-  </si>
-  <si>
-    <t>ViewTitle="{Binding ElementName=CalcTextDLogTitol}"/&gt;</t>
   </si>
   <si>
     <t>1)</t>
@@ -1626,6 +1623,162 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>コタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更履歴</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/&gt;</t>
+  </si>
+  <si>
+    <t>←2/12：表示位置指定</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示位置指定を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電卓の呼び出しボタン；cs_calculator:CalculatorButtonで</t>
+    <rPh sb="0" eb="2">
+      <t>デンタク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンサイズ[65×48] を[46×38]に変更</t>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面幅300を260に変更</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示位置の指定</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShowX="{Binding ElementName=CalcTextShowX}"</t>
+  </si>
+  <si>
+    <t>ShowY="{Binding ElementName=CalcTextShowY}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;TextBox </t>
+  </si>
+  <si>
+    <t>x:Name="CalcTextShowX"</t>
+  </si>
+  <si>
+    <t>Text="{Binding CalcTextShowX,Mode=TwoWay}"</t>
+  </si>
+  <si>
+    <t>x:Name="CalcTextShowY"</t>
+  </si>
+  <si>
+    <t>Text="{Binding CalcTextShowY,Mode=TwoWay}"</t>
+  </si>
+  <si>
+    <t>x座標をShowX</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShowY="{Binding ElementName=CalcTextShowY}"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｙ座標をShowY　にdoubleに変k産できる文字列で指定</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※表示位置を指定しなければボタンから(30,20)シフトして表示します。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1685,7 +1838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1699,12 +1852,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1712,6 +1859,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1736,13 +1895,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>53976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>33614</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1780,13 +1939,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>133709</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>124135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1824,13 +1983,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>9197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>48057</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1868,13 +2027,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>88405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1912,13 +2071,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>133783</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>67260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1956,7 +2115,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="232029" cy="265175"/>
@@ -2035,13 +2194,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>131021</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>55891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>5096</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>91891</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2095,13 +2254,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>73279</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>132588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>147434</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>55891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2151,7 +2310,7 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>85471</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="232029" cy="265175"/>
@@ -2230,13 +2389,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>111971</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>36841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>147971</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>72841</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2290,13 +2449,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>132588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>142699</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>42113</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2346,7 +2505,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>36450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="232029" cy="265175"/>
@@ -2425,13 +2584,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>73871</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>103516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>109871</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>139516</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2485,13 +2644,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>73279</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>18225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>79143</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>108788</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2541,7 +2700,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>36450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="232029" cy="265175"/>
@@ -2615,13 +2774,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>150071</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>135265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>24146</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>20453</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2675,13 +2834,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>73279</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>18226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>7734</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>135265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2731,7 +2890,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="232029" cy="265175"/>
@@ -2805,13 +2964,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>88158</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>74941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>120983</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>110941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2865,13 +3024,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>73279</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>92941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>88158</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>132588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2923,7 +3082,7 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>85471</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="232029" cy="265175"/>
@@ -3002,13 +3161,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>140028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>107437</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>25216</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3062,13 +3221,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>42735</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>89436</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>140028</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3120,7 +3279,7 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>85471</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="232029" cy="265175"/>
@@ -3199,13 +3358,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>54303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>69337</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>90303</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3259,13 +3418,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>51337</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>42736</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>54304</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3317,13 +3476,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3360,13 +3519,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>94864</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>4952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3404,13 +3563,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>104391</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>9400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3448,13 +3607,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>66285</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>47758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3492,13 +3651,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>113917</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>139551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3536,13 +3695,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>68167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>146425</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3580,13 +3739,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>63886</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>66811</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3624,13 +3783,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>49587</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>76284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3668,13 +3827,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>155951</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>73119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3712,13 +3871,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>136899</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>138194</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3756,13 +3915,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>134937</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>55562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>151191</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>61997</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3800,13 +3959,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>134851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>35307</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3844,13 +4003,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>15874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>82858</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:colOff>66983</xdr:colOff>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>9565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3888,13 +4047,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>7938</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>78378</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>53065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3932,7 +4091,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>33081</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>77458</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="280800" cy="265175"/>
@@ -4011,13 +4170,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>11703</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>47703</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>93149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4071,13 +4230,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>155131</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>59234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>29703</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4127,7 +4286,7 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>22227</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>78867</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="280800" cy="281406"/>
@@ -4206,13 +4365,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>141878</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>19128</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>131249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4266,13 +4425,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>1128</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>58649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>3877</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4324,7 +4483,7 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>32455</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>28829</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="280800" cy="281406"/>
@@ -4403,13 +4562,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>2178</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>38178</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>121724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4463,13 +4622,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>20179</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>18720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>32456</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4815,136 +4974,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0381B76-B3FF-4D6F-83E0-648268F80697}">
-  <dimension ref="A2:X263"/>
+  <dimension ref="A1:AD279"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A226" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B2" s="10">
+        <v>44239</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD3" t="str">
+        <f>"{Binding ElementName=CalcTextShowX}"</f>
+        <v>{Binding ElementName=CalcTextShowX}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C30" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -4952,1390 +5133,1499 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C32" s="3" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C33" s="3"/>
-      <c r="E33" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C34" s="3"/>
-      <c r="E34" t="s">
-        <v>82</v>
+      <c r="C34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C35" s="3"/>
-      <c r="E35" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C36" s="3"/>
-      <c r="E36" t="s">
-        <v>84</v>
+      <c r="C36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="3"/>
-      <c r="E38" t="s">
-        <v>85</v>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C39" s="3"/>
-      <c r="E39" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="3"/>
-      <c r="E40" t="s">
-        <v>87</v>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C41" s="3"/>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C42" s="3"/>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C43" s="3"/>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C44" s="3"/>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C46" s="3"/>
+      <c r="E46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C47" s="3"/>
+      <c r="E47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C48" s="3"/>
+      <c r="E48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="3"/>
+      <c r="E49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="3"/>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="3"/>
+      <c r="E51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B53" s="1" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C66" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="4"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B70" s="3"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="4"/>
+    </row>
+    <row r="71" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="3"/>
+      <c r="C71" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="4"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B72" s="3"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="4"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B75" s="3"/>
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C88" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C89" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C92" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B94" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B55" s="1" t="s">
+      <c r="C94" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D97" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B103" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+    </row>
+    <row r="104" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D106" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="7"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+      <c r="V106" s="7"/>
+      <c r="W106" s="7"/>
+    </row>
+    <row r="107" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+    </row>
+    <row r="108" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D108" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+      <c r="V108" s="7"/>
+      <c r="W108" s="7"/>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+    </row>
+    <row r="112" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B112" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7"/>
+      <c r="R112" s="7"/>
+      <c r="S112" s="7"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+      <c r="V112" s="7"/>
+      <c r="W112" s="7"/>
+    </row>
+    <row r="113" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7"/>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+    </row>
+    <row r="114" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7"/>
+      <c r="R114" s="7"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+      <c r="V114" s="7"/>
+      <c r="W114" s="7"/>
+    </row>
+    <row r="121" spans="2:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="6"/>
+      <c r="T121" s="6"/>
+      <c r="U121" s="6"/>
+      <c r="V121" s="6"/>
+      <c r="W121" s="6"/>
+    </row>
+    <row r="122" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C122" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="6"/>
+      <c r="T122" s="6"/>
+      <c r="U122" s="6"/>
+      <c r="V122" s="6"/>
+      <c r="W122" s="6"/>
+    </row>
+    <row r="124" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C124" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="7"/>
+      <c r="R124" s="7"/>
+      <c r="S124" s="7"/>
+      <c r="T124" s="7"/>
+      <c r="U124" s="7"/>
+      <c r="V124" s="7"/>
+      <c r="W124" s="7"/>
+    </row>
+    <row r="125" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7"/>
+      <c r="S125" s="7"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+      <c r="V125" s="7"/>
+      <c r="W125" s="7"/>
+    </row>
+    <row r="126" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B130" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B133" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C133" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="8"/>
+      <c r="P135" s="8"/>
+      <c r="Q135" s="8"/>
+      <c r="R135" s="8"/>
+      <c r="S135" s="8"/>
+      <c r="T135" s="8"/>
+      <c r="U135" s="8"/>
+      <c r="V135" s="8"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="8"/>
+      <c r="R136" s="8"/>
+      <c r="S136" s="8"/>
+      <c r="T136" s="8"/>
+      <c r="U136" s="8"/>
+      <c r="V136" s="8"/>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="8"/>
+      <c r="R137" s="8"/>
+      <c r="S137" s="8"/>
+      <c r="T137" s="8"/>
+      <c r="U137" s="8"/>
+      <c r="V137" s="8"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B139" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="P144" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B183" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B200" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C202" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C204" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C205" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C207" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C208" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C209" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C210" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>27</v>
+      </c>
+      <c r="B217" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B219" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C221" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C223" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C225" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B228" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C230" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D230" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C231" s="1"/>
+      <c r="D231" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C232" s="1"/>
+      <c r="H232" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C233" s="1"/>
+      <c r="H233" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C234" s="1"/>
+      <c r="H234" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C235" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="C56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="C58" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="C60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="6"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B62" s="3"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="6"/>
-    </row>
-    <row r="63" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="3"/>
-      <c r="C63" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="6"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B64" s="3"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="6"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
+      <c r="D235" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D236" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E236" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D237" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E237" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D238" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G239" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G240" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="241" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="G241" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB241" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="242" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="E242" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="243" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C243" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D243" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="244" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C244" s="1"/>
+      <c r="D244" t="s">
+        <v>150</v>
+      </c>
+      <c r="E244" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="245" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C245" s="1"/>
+      <c r="G245" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="246" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C246" s="1"/>
+      <c r="G246" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="247" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D247" t="s">
+        <v>150</v>
+      </c>
+      <c r="E247" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="248" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="G248" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="249" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="G249" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="251" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D251" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="254" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C254" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="255" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C255" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="258" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B258" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="260" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C260" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="261" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C261" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="262" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C262" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="263" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="E263" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F263" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="264" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="E264" s="1"/>
+    </row>
+    <row r="265" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="E265" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F265" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="266" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="E266" s="1"/>
+    </row>
+    <row r="267" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="E267" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F267" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="269" spans="2:22" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C269" s="1"/>
+      <c r="D269" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" s="7"/>
+      <c r="H269" s="7"/>
+      <c r="I269" s="7"/>
+      <c r="J269" s="7"/>
+      <c r="K269" s="7"/>
+      <c r="L269" s="7"/>
+      <c r="M269" s="7"/>
+      <c r="N269" s="7"/>
+      <c r="O269" s="7"/>
+      <c r="P269" s="7"/>
+      <c r="Q269" s="7"/>
+      <c r="R269" s="7"/>
+      <c r="S269" s="7"/>
+      <c r="T269" s="7"/>
+      <c r="U269" s="7"/>
+      <c r="V269" s="7"/>
+    </row>
+    <row r="270" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="D270" s="7"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
+      <c r="G270" s="7"/>
+      <c r="H270" s="7"/>
+      <c r="I270" s="7"/>
+      <c r="J270" s="7"/>
+      <c r="K270" s="7"/>
+      <c r="L270" s="7"/>
+      <c r="M270" s="7"/>
+      <c r="N270" s="7"/>
+      <c r="O270" s="7"/>
+      <c r="P270" s="7"/>
+      <c r="Q270" s="7"/>
+      <c r="R270" s="7"/>
+      <c r="S270" s="7"/>
+      <c r="T270" s="7"/>
+      <c r="U270" s="7"/>
+      <c r="V270" s="7"/>
+    </row>
+    <row r="271" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="D271" s="7"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
+      <c r="G271" s="7"/>
+      <c r="H271" s="7"/>
+      <c r="I271" s="7"/>
+      <c r="J271" s="7"/>
+      <c r="K271" s="7"/>
+      <c r="L271" s="7"/>
+      <c r="M271" s="7"/>
+      <c r="N271" s="7"/>
+      <c r="O271" s="7"/>
+      <c r="P271" s="7"/>
+      <c r="Q271" s="7"/>
+      <c r="R271" s="7"/>
+      <c r="S271" s="7"/>
+      <c r="T271" s="7"/>
+      <c r="U271" s="7"/>
+      <c r="V271" s="7"/>
+    </row>
+    <row r="272" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="D272" s="7"/>
+      <c r="E272" s="7"/>
+      <c r="F272" s="7"/>
+      <c r="G272" s="7"/>
+      <c r="H272" s="7"/>
+      <c r="I272" s="7"/>
+      <c r="J272" s="7"/>
+      <c r="K272" s="7"/>
+      <c r="L272" s="7"/>
+      <c r="M272" s="7"/>
+      <c r="N272" s="7"/>
+      <c r="O272" s="7"/>
+      <c r="P272" s="7"/>
+      <c r="Q272" s="7"/>
+      <c r="R272" s="7"/>
+      <c r="S272" s="7"/>
+      <c r="T272" s="7"/>
+      <c r="U272" s="7"/>
+      <c r="V272" s="7"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A276" t="s">
         <v>36</v>
       </c>
-      <c r="C66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B67" s="3"/>
-      <c r="C67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C69" s="3"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B71" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C80" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-    </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C81" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-    </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-    </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-    </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C84" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B86" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-    </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-    </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="D89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B95" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5"/>
-      <c r="V95" s="5"/>
-      <c r="W95" s="5"/>
-    </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5"/>
-      <c r="V96" s="5"/>
-      <c r="W96" s="5"/>
-    </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="D98" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5"/>
-      <c r="V98" s="5"/>
-      <c r="W98" s="5"/>
-    </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
-      <c r="U99" s="5"/>
-      <c r="V99" s="5"/>
-      <c r="W99" s="5"/>
-    </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="D100" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5"/>
-      <c r="V100" s="5"/>
-      <c r="W100" s="5"/>
-    </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
-    </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B104" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-      <c r="U104" s="5"/>
-      <c r="V104" s="5"/>
-      <c r="W104" s="5"/>
-    </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-      <c r="U105" s="5"/>
-      <c r="V105" s="5"/>
-      <c r="W105" s="5"/>
-    </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="5"/>
-      <c r="U106" s="5"/>
-      <c r="V106" s="5"/>
-      <c r="W106" s="5"/>
-    </row>
-    <row r="113" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="8"/>
-      <c r="Q113" s="8"/>
-      <c r="R113" s="8"/>
-      <c r="S113" s="8"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="8"/>
-      <c r="V113" s="8"/>
-      <c r="W113" s="8"/>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C114" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
-      <c r="P114" s="8"/>
-      <c r="Q114" s="8"/>
-      <c r="R114" s="8"/>
-      <c r="S114" s="8"/>
-      <c r="T114" s="8"/>
-      <c r="U114" s="8"/>
-      <c r="V114" s="8"/>
-      <c r="W114" s="8"/>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C116" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-      <c r="U116" s="5"/>
-      <c r="V116" s="5"/>
-      <c r="W116" s="5"/>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5"/>
-      <c r="V117" s="5"/>
-      <c r="W117" s="5"/>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C118" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B122" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C122" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B125" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C125" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C126" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
-      <c r="Q127" s="4"/>
-      <c r="R127" s="4"/>
-      <c r="S127" s="4"/>
-      <c r="T127" s="4"/>
-      <c r="U127" s="4"/>
-      <c r="V127" s="4"/>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-      <c r="R128" s="4"/>
-      <c r="S128" s="4"/>
-      <c r="T128" s="4"/>
-      <c r="U128" s="4"/>
-      <c r="V128" s="4"/>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-      <c r="R129" s="4"/>
-      <c r="S129" s="4"/>
-      <c r="T129" s="4"/>
-      <c r="U129" s="4"/>
-      <c r="V129" s="4"/>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B131" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C131" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="C132" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="P136" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A140" t="s">
-        <v>26</v>
-      </c>
-      <c r="B140" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B141" t="s">
-        <v>1</v>
-      </c>
-      <c r="C141" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B145" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C146" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B156" t="s">
-        <v>9</v>
-      </c>
-      <c r="C156" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B175" t="s">
-        <v>14</v>
-      </c>
-      <c r="C175" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C176" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C177" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B192" t="s">
-        <v>15</v>
-      </c>
-      <c r="C192" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C193" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C194" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C196" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C197" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C199" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C200" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C201" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C202" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A209" t="s">
-        <v>27</v>
-      </c>
-      <c r="B209" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B211" t="s">
-        <v>1</v>
-      </c>
-      <c r="C211" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C213" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C215" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C217" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B220" t="s">
-        <v>3</v>
-      </c>
-      <c r="C220" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C222" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D222" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C223" s="1"/>
-      <c r="D223" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C224" s="1"/>
-      <c r="H224" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="225" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C225" s="1"/>
-      <c r="H225" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="226" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C226" s="1"/>
-      <c r="H226" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="227" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C227" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D227" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="228" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C228" s="1"/>
-      <c r="D228" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E228" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="229" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D229" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E229" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="230" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D230" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="231" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G231" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="232" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G232" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="238" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C238" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="239" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C239" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="242" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B242" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="244" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="C244" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="245" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="C245" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="246" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="C246" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D246" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="247" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="E247" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F247" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="248" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="E248" s="1"/>
-    </row>
-    <row r="249" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="E249" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F249" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="250" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="E250" s="1"/>
-    </row>
-    <row r="251" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="E251" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F251" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="253" spans="2:22" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C253" s="1"/>
-      <c r="D253" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
-      <c r="G253" s="5"/>
-      <c r="H253" s="5"/>
-      <c r="I253" s="5"/>
-      <c r="J253" s="5"/>
-      <c r="K253" s="5"/>
-      <c r="L253" s="5"/>
-      <c r="M253" s="5"/>
-      <c r="N253" s="5"/>
-      <c r="O253" s="5"/>
-      <c r="P253" s="5"/>
-      <c r="Q253" s="5"/>
-      <c r="R253" s="5"/>
-      <c r="S253" s="5"/>
-      <c r="T253" s="5"/>
-      <c r="U253" s="5"/>
-      <c r="V253" s="5"/>
-    </row>
-    <row r="254" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5"/>
-      <c r="H254" s="5"/>
-      <c r="I254" s="5"/>
-      <c r="J254" s="5"/>
-      <c r="K254" s="5"/>
-      <c r="L254" s="5"/>
-      <c r="M254" s="5"/>
-      <c r="N254" s="5"/>
-      <c r="O254" s="5"/>
-      <c r="P254" s="5"/>
-      <c r="Q254" s="5"/>
-      <c r="R254" s="5"/>
-      <c r="S254" s="5"/>
-      <c r="T254" s="5"/>
-      <c r="U254" s="5"/>
-      <c r="V254" s="5"/>
-    </row>
-    <row r="255" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
-      <c r="G255" s="5"/>
-      <c r="H255" s="5"/>
-      <c r="I255" s="5"/>
-      <c r="J255" s="5"/>
-      <c r="K255" s="5"/>
-      <c r="L255" s="5"/>
-      <c r="M255" s="5"/>
-      <c r="N255" s="5"/>
-      <c r="O255" s="5"/>
-      <c r="P255" s="5"/>
-      <c r="Q255" s="5"/>
-      <c r="R255" s="5"/>
-      <c r="S255" s="5"/>
-      <c r="T255" s="5"/>
-      <c r="U255" s="5"/>
-      <c r="V255" s="5"/>
-    </row>
-    <row r="256" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
-      <c r="G256" s="5"/>
-      <c r="H256" s="5"/>
-      <c r="I256" s="5"/>
-      <c r="J256" s="5"/>
-      <c r="K256" s="5"/>
-      <c r="L256" s="5"/>
-      <c r="M256" s="5"/>
-      <c r="N256" s="5"/>
-      <c r="O256" s="5"/>
-      <c r="P256" s="5"/>
-      <c r="Q256" s="5"/>
-      <c r="R256" s="5"/>
-      <c r="S256" s="5"/>
-      <c r="T256" s="5"/>
-      <c r="U256" s="5"/>
-      <c r="V256" s="5"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A260" t="s">
-        <v>36</v>
-      </c>
-      <c r="B260" t="s">
+      <c r="B276" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B261" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B277" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B262" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B278" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B263" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B279" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C116:W117"/>
-    <mergeCell ref="D127:V129"/>
-    <mergeCell ref="D253:V256"/>
+  <mergeCells count="14">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C69:W70"/>
+    <mergeCell ref="C71:W72"/>
+    <mergeCell ref="C79:W80"/>
     <mergeCell ref="C86:W87"/>
-    <mergeCell ref="C95:W96"/>
-    <mergeCell ref="D98:W99"/>
-    <mergeCell ref="D100:W101"/>
-    <mergeCell ref="C104:W106"/>
-    <mergeCell ref="C61:W62"/>
-    <mergeCell ref="C63:W64"/>
-    <mergeCell ref="C71:W72"/>
-    <mergeCell ref="C78:W79"/>
-    <mergeCell ref="C81:W82"/>
+    <mergeCell ref="C89:W90"/>
+    <mergeCell ref="C124:W125"/>
+    <mergeCell ref="D135:V137"/>
+    <mergeCell ref="D269:V272"/>
+    <mergeCell ref="C94:W95"/>
+    <mergeCell ref="C103:W104"/>
+    <mergeCell ref="D106:W107"/>
+    <mergeCell ref="D108:W109"/>
+    <mergeCell ref="C112:W114"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="139" max="16383" man="1"/>
+    <brk id="147" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="43" max="1048575" man="1"/>
